--- a/Data/employment.xlsx
+++ b/Data/employment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010838A2-12A0-F34A-A6B8-CE1FEAC654FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB8491-B90E-5943-95A9-29768126A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="4100" windowWidth="25040" windowHeight="13240" xr2:uid="{8320620B-F561-C145-991F-BCBD4365226F}"/>
+    <workbookView xWindow="3480" yWindow="3320" windowWidth="25040" windowHeight="13240" xr2:uid="{8320620B-F561-C145-991F-BCBD4365226F}"/>
   </bookViews>
   <sheets>
     <sheet name="İstihdam" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Martial Status</t>
+    <t>Martial_Status</t>
   </si>
   <si>
-    <t>Employment Rate</t>
+    <t>Employment_Rate</t>
   </si>
 </sst>
 </file>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C9C6A2-B77F-E744-A447-E05A27C60595}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1377,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2023</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2024</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2024</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2014</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>53.105982317143187</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2014</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>30.738645052760361</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2015</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>53.631852018948791</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2015</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>32.094849720586019</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2016</v>
       </c>
@@ -1488,11 +1488,8 @@
       <c r="D72" s="2">
         <v>53.549468977082171</v>
       </c>
-      <c r="P72" s="1">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2016</v>
       </c>
@@ -1505,11 +1502,8 @@
       <c r="D73" s="2">
         <v>32.451367781155014</v>
       </c>
-      <c r="P73" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2017</v>
       </c>
@@ -1522,11 +1516,8 @@
       <c r="D74" s="2">
         <v>54.30703390760452</v>
       </c>
-      <c r="P74" s="1">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2017</v>
       </c>
@@ -1539,11 +1530,8 @@
       <c r="D75" s="2">
         <v>33.025159139133073</v>
       </c>
-      <c r="P75" s="1">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2018</v>
       </c>
@@ -1556,11 +1544,8 @@
       <c r="D76" s="2">
         <v>55</v>
       </c>
-      <c r="P76" s="1">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2018</v>
       </c>
@@ -1573,11 +1558,8 @@
       <c r="D77" s="2">
         <v>33.5</v>
       </c>
-      <c r="P77" s="1">
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2019</v>
       </c>
@@ -1590,11 +1572,8 @@
       <c r="D78" s="2">
         <v>52.7</v>
       </c>
-      <c r="P78" s="1">
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2019</v>
       </c>
@@ -1607,11 +1586,8 @@
       <c r="D79" s="2">
         <v>33.299999999999997</v>
       </c>
-      <c r="P79" s="1">
-        <v>39.4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2020</v>
       </c>
@@ -1624,11 +1600,8 @@
       <c r="D80" s="2">
         <v>48.7</v>
       </c>
-      <c r="P80" s="1">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2020</v>
       </c>
@@ -1641,11 +1614,8 @@
       <c r="D81" s="2">
         <v>29.6</v>
       </c>
-      <c r="P81" s="1">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2021</v>
       </c>
@@ -1659,7 +1629,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2021</v>
       </c>
@@ -1673,7 +1643,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2022</v>
       </c>
@@ -1687,7 +1657,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2022</v>
       </c>
@@ -1701,7 +1671,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2023</v>
       </c>
@@ -1715,7 +1685,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2023</v>
       </c>
@@ -1729,7 +1699,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2024</v>
       </c>
@@ -1743,7 +1713,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2024</v>
       </c>
@@ -1757,7 +1727,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2014</v>
       </c>
@@ -1771,7 +1741,7 @@
         <v>64.821460294901399</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2014</v>
       </c>
@@ -1785,7 +1755,7 @@
         <v>26.659963246766754</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2015</v>
       </c>
@@ -1799,7 +1769,7 @@
         <v>64.963427011514369</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2015</v>
       </c>
@@ -1813,7 +1783,7 @@
         <v>27.519551927871316</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2016</v>
       </c>
@@ -1827,7 +1797,7 @@
         <v>65.078708966277432</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2016</v>
       </c>
@@ -1841,7 +1811,7 @@
         <v>27.996901209202065</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2017</v>
       </c>

--- a/Data/employment.xlsx
+++ b/Data/employment.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB8491-B90E-5943-95A9-29768126A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687E4D59-5D02-BC45-90A3-DA0BB6425730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3320" windowWidth="25040" windowHeight="13240" xr2:uid="{8320620B-F561-C145-991F-BCBD4365226F}"/>
+    <workbookView xWindow="3480" yWindow="3180" windowWidth="25040" windowHeight="13240" xr2:uid="{8320620B-F561-C145-991F-BCBD4365226F}"/>
   </bookViews>
   <sheets>
     <sheet name="İstihdam" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">İstihdam!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">İstihdam!$A$1:$D$89</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="10">
   <si>
     <t>Eşi öldü</t>
   </si>
@@ -60,19 +60,16 @@
     <t>Hiç evlenmedi</t>
   </si>
   <si>
-    <t>Toplam</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Martial_Status</t>
+    <t>Employment_Rate</t>
   </si>
   <si>
-    <t>Employment_Rate</t>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -467,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C9C6A2-B77F-E744-A447-E05A27C60595}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D111" sqref="D90:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,16 +480,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1727,320 +1724,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="2">
-        <v>64.821460294901399</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="2">
-        <v>26.659963246766754</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="2">
-        <v>64.963427011514369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="2">
-        <v>27.519551927871316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="2">
-        <v>65.078708966277432</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="2">
-        <v>27.996901209202065</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="2">
-        <v>65.634591385881478</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="2">
-        <v>28.861923026054754</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="2">
-        <v>65.7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="2">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="2">
-        <v>63.070303172000003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="2">
-        <v>28.697378514</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="2">
-        <v>59.8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="2">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="2">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="2">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="2">
-        <v>65.7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="2">
-        <v>31.3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="2">
-        <v>66.900000000000006</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="2">
-        <v>32.5</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D111" xr:uid="{069BF149-E9D5-1846-B1D1-493B354BC0E9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D111">
-      <sortCondition ref="C1:C111"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>